--- a/Ropa/Compra14-02.xlsx
+++ b/Ropa/Compra14-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\Ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EA0032-C032-415E-9EF8-1503642CA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A462C723-E2D9-4AA9-BC96-4038D82E73D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0B1A3D3-6915-4331-93A3-61AFB8531BEF}"/>
+    <workbookView xWindow="21720" yWindow="3315" windowWidth="18840" windowHeight="10380" xr2:uid="{F0B1A3D3-6915-4331-93A3-61AFB8531BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="76">
   <si>
     <t>Código</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Blanco</t>
-  </si>
-  <si>
-    <t>M/L</t>
   </si>
   <si>
     <t>L/XL</t>
@@ -268,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,13 +281,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,10 +314,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -625,19 +635,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC7B3D3-6026-49B0-B87A-88D43524ECDA}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,27 +676,27 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -708,14 +724,23 @@
         <v>11876.2</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="2" t="s">
-        <v>60</v>
+      <c r="J3" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3">
+        <v>52</v>
+      </c>
+      <c r="M3">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -744,10 +769,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="K4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -776,10 +801,10 @@
       </c>
       <c r="I5" s="1"/>
       <c r="K5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -807,14 +832,23 @@
         <v>11876.2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="2" t="s">
-        <v>61</v>
+      <c r="J6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L6">
+        <v>54</v>
+      </c>
+      <c r="M6">
+        <v>82</v>
+      </c>
+      <c r="N6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -843,10 +877,10 @@
       </c>
       <c r="I7" s="1"/>
       <c r="K7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -875,10 +909,10 @@
       </c>
       <c r="I8" s="1"/>
       <c r="K8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -907,10 +941,11 @@
       </c>
       <c r="I9" s="1"/>
       <c r="K9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -938,14 +973,20 @@
         <v>10698.1</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="2" t="s">
-        <v>62</v>
+      <c r="J10" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -974,10 +1015,16 @@
       </c>
       <c r="I11" s="1"/>
       <c r="K11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>106</v>
+      </c>
+      <c r="N11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1006,10 +1053,16 @@
       </c>
       <c r="I12" s="1"/>
       <c r="K12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M12">
+        <v>112</v>
+      </c>
+      <c r="N12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1038,10 +1091,16 @@
       </c>
       <c r="I13" s="1"/>
       <c r="K13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M13">
+        <v>116</v>
+      </c>
+      <c r="N13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1070,10 +1129,16 @@
       </c>
       <c r="I14" s="1"/>
       <c r="K14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M14">
+        <v>118</v>
+      </c>
+      <c r="N14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1101,14 +1166,23 @@
         <v>7128.1</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="2" t="s">
-        <v>63</v>
+      <c r="J15" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <v>56</v>
+      </c>
+      <c r="M15">
+        <v>104</v>
+      </c>
+      <c r="N15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1137,10 +1211,19 @@
       </c>
       <c r="I16" s="1"/>
       <c r="K16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L16">
+        <v>57</v>
+      </c>
+      <c r="M16">
+        <v>106</v>
+      </c>
+      <c r="N16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1169,10 +1252,19 @@
       </c>
       <c r="I17" s="1"/>
       <c r="K17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <v>59</v>
+      </c>
+      <c r="M17">
+        <v>110</v>
+      </c>
+      <c r="N17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1201,10 +1293,19 @@
       </c>
       <c r="I18" s="1"/>
       <c r="K18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>115</v>
+      </c>
+      <c r="N18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1233,10 +1334,10 @@
       </c>
       <c r="I19" s="1"/>
       <c r="K19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1265,10 +1366,10 @@
       </c>
       <c r="I20" s="1"/>
       <c r="K20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1297,10 +1398,10 @@
       </c>
       <c r="I21" s="1"/>
       <c r="K21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1329,10 +1430,10 @@
       </c>
       <c r="I22" s="1"/>
       <c r="K22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1361,10 +1462,10 @@
       </c>
       <c r="I23" s="1"/>
       <c r="K23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1393,10 +1494,10 @@
       </c>
       <c r="I24" s="1"/>
       <c r="K24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1425,10 +1526,10 @@
       </c>
       <c r="I25" s="1"/>
       <c r="K25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1457,10 +1558,10 @@
       </c>
       <c r="I26" s="1"/>
       <c r="K26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1489,10 +1590,10 @@
       </c>
       <c r="I27" s="1"/>
       <c r="K27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1521,10 +1622,10 @@
       </c>
       <c r="I28" s="1"/>
       <c r="K28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1553,10 +1654,10 @@
       </c>
       <c r="I29" s="1"/>
       <c r="K29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1585,10 +1686,10 @@
       </c>
       <c r="I30" s="1"/>
       <c r="K30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1599,7 +1700,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1616,14 +1717,23 @@
         <v>8318.1</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" t="s">
-        <v>64</v>
+      <c r="J31" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L31">
+        <v>65</v>
+      </c>
+      <c r="M31">
+        <v>98</v>
+      </c>
+      <c r="N31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1634,7 +1744,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1652,10 +1762,19 @@
       </c>
       <c r="I32" s="1"/>
       <c r="K32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L32">
+        <v>70</v>
+      </c>
+      <c r="M32">
+        <v>105</v>
+      </c>
+      <c r="N32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1666,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1684,10 +1803,10 @@
       </c>
       <c r="I33" s="1"/>
       <c r="K33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1698,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1716,10 +1835,10 @@
       </c>
       <c r="I34" s="1"/>
       <c r="K34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1727,10 +1846,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1748,10 +1867,10 @@
       </c>
       <c r="I35" s="1"/>
       <c r="K35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1878,7 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -1780,21 +1899,21 @@
       </c>
       <c r="I36" s="1"/>
       <c r="K36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1811,25 +1930,34 @@
         <v>7128.1</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="2" t="s">
-        <v>65</v>
+      <c r="J37" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L37">
+        <v>59</v>
+      </c>
+      <c r="M37">
+        <v>106</v>
+      </c>
+      <c r="N37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1847,21 +1975,30 @@
       </c>
       <c r="I38" s="1"/>
       <c r="K38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L38">
+        <v>61</v>
+      </c>
+      <c r="M38">
+        <v>110</v>
+      </c>
+      <c r="N38">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1879,21 +2016,21 @@
       </c>
       <c r="I39" s="1"/>
       <c r="K39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
         <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1911,21 +2048,21 @@
       </c>
       <c r="I40" s="1"/>
       <c r="K40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
         <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1943,21 +2080,21 @@
       </c>
       <c r="I41" s="1"/>
       <c r="K41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
         <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1975,15 +2112,15 @@
       </c>
       <c r="I42" s="1"/>
       <c r="K42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -2006,19 +2143,28 @@
         <v>19016.2</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="2" t="s">
-        <v>66</v>
+      <c r="J43" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L43">
+        <v>59</v>
+      </c>
+      <c r="M43">
+        <v>116</v>
+      </c>
+      <c r="N43">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
         <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -2042,18 +2188,18 @@
       </c>
       <c r="I44" s="1"/>
       <c r="K44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2074,15 +2220,15 @@
       </c>
       <c r="I45" s="1"/>
       <c r="K45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
         <v>41</v>
-      </c>
-      <c r="B46" t="s">
-        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2106,15 +2252,15 @@
       </c>
       <c r="I46" s="1"/>
       <c r="K46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
         <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2137,19 +2283,28 @@
         <v>16636.2</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="2" t="s">
-        <v>67</v>
+      <c r="J47" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="K47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L47">
+        <v>61</v>
+      </c>
+      <c r="M47">
+        <v>112</v>
+      </c>
+      <c r="N47">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
         <v>44</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -2173,18 +2328,18 @@
       </c>
       <c r="I48" s="1"/>
       <c r="K48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>45</v>
-      </c>
-      <c r="C49" t="s">
-        <v>46</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -2205,18 +2360,18 @@
       </c>
       <c r="I49" s="1"/>
       <c r="K49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -2237,15 +2392,15 @@
       </c>
       <c r="I50" s="1"/>
       <c r="K50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
         <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -2268,19 +2423,28 @@
         <v>8318.1</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="J51" s="2" t="s">
-        <v>68</v>
+      <c r="J51" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="K51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L51">
+        <v>56</v>
+      </c>
+      <c r="M51">
+        <v>98</v>
+      </c>
+      <c r="N51">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
         <v>48</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -2304,15 +2468,15 @@
       </c>
       <c r="I52" s="1"/>
       <c r="K52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
         <v>48</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -2336,18 +2500,18 @@
       </c>
       <c r="I53" s="1"/>
       <c r="K53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
         <v>48</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>49</v>
-      </c>
-      <c r="C54" t="s">
-        <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -2368,18 +2532,18 @@
       </c>
       <c r="I54" s="1"/>
       <c r="K54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
         <v>48</v>
       </c>
-      <c r="B55" t="s">
-        <v>49</v>
-      </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -2400,15 +2564,15 @@
       </c>
       <c r="I55" s="1"/>
       <c r="K55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
         <v>48</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -2432,15 +2596,15 @@
       </c>
       <c r="I56" s="1"/>
       <c r="K56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
         <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>53</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -2464,18 +2628,18 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
         <v>52</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -2499,15 +2663,15 @@
       </c>
       <c r="I58" s="1"/>
       <c r="K58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
         <v>52</v>
-      </c>
-      <c r="B59" t="s">
-        <v>53</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2531,15 +2695,15 @@
       </c>
       <c r="I59" s="1"/>
       <c r="K59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" t="s">
         <v>52</v>
-      </c>
-      <c r="B60" t="s">
-        <v>53</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -2563,15 +2727,15 @@
       </c>
       <c r="I60" s="1"/>
       <c r="K60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
         <v>52</v>
-      </c>
-      <c r="B61" t="s">
-        <v>53</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2595,15 +2759,15 @@
       </c>
       <c r="I61" s="1"/>
       <c r="K61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
         <v>52</v>
-      </c>
-      <c r="B62" t="s">
-        <v>53</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -2627,15 +2791,15 @@
       </c>
       <c r="I62" s="1"/>
       <c r="K62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
         <v>52</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2659,15 +2823,15 @@
       </c>
       <c r="I63" s="1"/>
       <c r="K63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
         <v>52</v>
-      </c>
-      <c r="B64" t="s">
-        <v>53</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -2691,15 +2855,15 @@
       </c>
       <c r="I64" s="1"/>
       <c r="K64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
         <v>54</v>
-      </c>
-      <c r="B65" t="s">
-        <v>55</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -2723,18 +2887,18 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
         <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>55</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2758,21 +2922,21 @@
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
         <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2790,15 +2954,15 @@
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
         <v>57</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -2822,18 +2986,18 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
         <v>57</v>
-      </c>
-      <c r="B69" t="s">
-        <v>58</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -2857,15 +3021,15 @@
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
         <v>57</v>
-      </c>
-      <c r="B70" t="s">
-        <v>58</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -2889,15 +3053,15 @@
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
         <v>57</v>
-      </c>
-      <c r="B71" t="s">
-        <v>58</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -2921,15 +3085,15 @@
       </c>
       <c r="I71" s="1"/>
       <c r="K71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
         <v>57</v>
-      </c>
-      <c r="B72" t="s">
-        <v>58</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -2953,15 +3117,15 @@
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
         <v>57</v>
-      </c>
-      <c r="B73" t="s">
-        <v>58</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -2986,7 +3150,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3018,8 +3182,11 @@
     <hyperlink ref="J68" r:id="rId7" xr:uid="{35651268-D911-411D-ADD2-1A7D386F0038}"/>
     <hyperlink ref="J65" r:id="rId8" xr:uid="{FD1F8190-1812-4A7E-BB43-AB8E4911355F}"/>
     <hyperlink ref="J57" r:id="rId9" xr:uid="{83C76564-1FA1-4456-9732-C79DF56C785B}"/>
+    <hyperlink ref="J31" r:id="rId10" xr:uid="{DEDF34F6-C0A5-4070-B1FD-E316F433B06B}"/>
+    <hyperlink ref="J51" r:id="rId11" xr:uid="{B853908D-1E52-470D-B547-AF8393439C91}"/>
+    <hyperlink ref="J47" r:id="rId12" xr:uid="{F24FCE2F-2ED8-42A6-844A-0ADEFBB21AA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId13"/>
 </worksheet>
 </file>